--- a/User/files/Sample CompanyContact Import Format.xlsx
+++ b/User/files/Sample CompanyContact Import Format.xlsx
@@ -1,17 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21715"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9425F8EE-9611-4FE7-962E-AF22F5FDA63A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="525" windowWidth="19815" windowHeight="7365" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sample Sheet &amp; Instructions" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$2</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="56">
   <si>
     <t>Company Name</t>
   </si>
@@ -53,22 +55,25 @@
     <t>Contact's Address</t>
   </si>
   <si>
+    <t>DOB(Date)</t>
+  </si>
+  <si>
+    <t>GSTIN(Text)</t>
+  </si>
+  <si>
+    <t>TAN(text)</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>Good to have</t>
+  </si>
+  <si>
     <t>DOB</t>
-  </si>
-  <si>
-    <t>GSTIN(Text)</t>
-  </si>
-  <si>
-    <t>TAN(text)</t>
-  </si>
-  <si>
-    <t>Required</t>
-  </si>
-  <si>
-    <t>Optional</t>
-  </si>
-  <si>
-    <t>Good to have</t>
   </si>
   <si>
     <t>PGRT &amp; Associates</t>
@@ -256,11 +261,23 @@
   <si>
     <t>If there is already 2 or more then 2 Companies/Contacts exists with same PAN or same Mobile No.  then ECB will Ignore that record.</t>
   </si>
+  <si>
+    <t>Company's Tag</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required </t>
+  </si>
+  <si>
+    <t>TAN(Text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -352,7 +369,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -558,6 +575,101 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -568,22 +680,17 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -664,6 +771,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -704,12 +822,111 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -765,7 +982,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -797,27 +1014,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -849,24 +1048,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1042,528 +1223,533 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:L2"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" style="62" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="62" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.5703125" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="22.5703125" customWidth="1"/>
     <col min="10" max="10" width="11.140625" customWidth="1"/>
-    <col min="11" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" customWidth="1"/>
-    <col min="19" max="25" width="8.7109375" customWidth="1"/>
+    <col min="11" max="12" width="11" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" customWidth="1"/>
+    <col min="18" max="24" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1">
-      <c r="A2" s="11" t="s">
+      <c r="L1" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="39"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1">
+      <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="2"/>
+      <c r="M2" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="39"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="66"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="3"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="42"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="67"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="3"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1">
+      <c r="A5" s="66"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-    </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1">
+      <c r="A6" s="61"/>
+      <c r="F6" s="73"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1">
+      <c r="A10" s="61"/>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1">
+      <c r="A11" s="61"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1">
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-    </row>
-    <row r="16" spans="1:15" ht="21" customHeight="1">
-      <c r="A16" s="42"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-    </row>
-    <row r="19" spans="17:18" ht="18" customHeight="1">
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
-    </row>
-    <row r="20" spans="17:18" ht="18" customHeight="1">
-      <c r="Q20" s="42"/>
-      <c r="R20" s="42"/>
-    </row>
-    <row r="21" spans="17:18" ht="15.75" customHeight="1">
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+    </row>
+    <row r="16" spans="1:14" ht="21" customHeight="1">
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+    </row>
+    <row r="19" spans="16:17" ht="18" customHeight="1">
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+    </row>
+    <row r="20" spans="16:17" ht="18" customHeight="1">
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+    </row>
+    <row r="21" spans="16:17" ht="15.75" customHeight="1">
+      <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-    </row>
-    <row r="22" spans="17:18" ht="15.75" customHeight="1">
+    </row>
+    <row r="22" spans="16:17" ht="15.75" customHeight="1">
+      <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-    </row>
-    <row r="23" spans="17:18" ht="15.75" customHeight="1">
-      <c r="Q23" s="42"/>
-      <c r="R23" s="42"/>
-    </row>
-    <row r="24" spans="17:18" ht="15.75" customHeight="1">
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
-    </row>
-    <row r="25" spans="17:18" ht="15.75" customHeight="1">
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
-    </row>
-    <row r="26" spans="17:18" ht="15.75" customHeight="1">
-      <c r="Q26" s="42"/>
-      <c r="R26" s="42"/>
-    </row>
-    <row r="27" spans="17:18" ht="15.75" customHeight="1">
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42"/>
-    </row>
-    <row r="28" spans="17:18" ht="15.75" customHeight="1">
-      <c r="Q28" s="42"/>
-      <c r="R28" s="42"/>
-    </row>
-    <row r="29" spans="17:18" ht="15.75" customHeight="1">
-      <c r="Q29" s="42"/>
-      <c r="R29" s="42"/>
-    </row>
-    <row r="30" spans="17:18" ht="15.75" customHeight="1">
-      <c r="Q30" s="42"/>
-      <c r="R30" s="42"/>
-    </row>
-    <row r="31" spans="17:18" ht="15.75" customHeight="1">
-      <c r="Q31" s="42"/>
-      <c r="R31" s="42"/>
-    </row>
-    <row r="32" spans="17:18" ht="15.75" customHeight="1">
-      <c r="Q32" s="42"/>
-      <c r="R32" s="42"/>
-    </row>
-    <row r="33" spans="18:18" ht="15.75" customHeight="1">
-      <c r="R33" s="42"/>
-    </row>
-    <row r="34" spans="18:18" ht="15.75" customHeight="1">
-      <c r="R34" s="42"/>
-    </row>
-    <row r="35" spans="18:18" ht="15.75" customHeight="1">
-      <c r="R35" s="42"/>
-    </row>
-    <row r="36" spans="18:18" ht="15.75" customHeight="1">
-      <c r="R36" s="42"/>
-    </row>
-    <row r="37" spans="18:18" ht="15.75" customHeight="1">
-      <c r="R37" s="42"/>
-    </row>
-    <row r="38" spans="18:18" ht="15.75" customHeight="1">
-      <c r="R38" s="1"/>
-    </row>
-    <row r="39" spans="18:18" ht="15.75" customHeight="1">
-      <c r="R39" s="42"/>
-    </row>
-    <row r="40" spans="18:18" ht="15.75" customHeight="1">
-      <c r="R40" s="42"/>
-    </row>
-    <row r="41" spans="18:18" ht="15.75" customHeight="1">
-      <c r="R41" s="42"/>
-    </row>
-    <row r="42" spans="18:18" ht="15.75" customHeight="1">
-      <c r="R42" s="42"/>
-    </row>
-    <row r="43" spans="18:18" ht="15.75" customHeight="1">
-      <c r="R43" s="42"/>
-    </row>
-    <row r="44" spans="18:18" ht="15.75" customHeight="1">
-      <c r="R44" s="42"/>
-    </row>
-    <row r="45" spans="18:18" ht="15.75" customHeight="1">
-      <c r="R45" s="42"/>
-    </row>
-    <row r="46" spans="18:18" ht="15.75" customHeight="1">
-      <c r="R46" s="42"/>
-    </row>
-    <row r="47" spans="18:18" ht="15.75" customHeight="1">
-      <c r="R47" s="42"/>
-    </row>
-    <row r="48" spans="18:18" ht="15.75" customHeight="1">
-      <c r="R48" s="42"/>
-    </row>
-    <row r="49" spans="15:19" ht="15.75" customHeight="1">
-      <c r="O49" s="42"/>
-      <c r="P49" s="42"/>
-      <c r="Q49" s="42"/>
-      <c r="R49" s="42"/>
-      <c r="S49" s="42"/>
-    </row>
-    <row r="50" spans="15:19" ht="15.75" customHeight="1">
-      <c r="O50" s="42"/>
-      <c r="P50" s="42"/>
-      <c r="Q50" s="42"/>
-      <c r="R50" s="42"/>
-      <c r="S50" s="42"/>
-    </row>
-    <row r="51" spans="15:19" ht="15.75" customHeight="1">
-      <c r="O51" s="42"/>
-      <c r="P51" s="42"/>
-      <c r="Q51" s="42"/>
-      <c r="R51" s="42"/>
-      <c r="S51" s="42"/>
-    </row>
-    <row r="52" spans="15:19" ht="15.75" customHeight="1">
-      <c r="O52" s="42"/>
-      <c r="P52" s="42"/>
-      <c r="Q52" s="42"/>
-      <c r="R52" s="42"/>
-      <c r="S52" s="42"/>
-    </row>
-    <row r="53" spans="15:19" ht="15.75" customHeight="1">
-      <c r="O53" s="42"/>
-      <c r="P53" s="42"/>
-      <c r="Q53" s="42"/>
-      <c r="R53" s="42"/>
-      <c r="S53" s="42"/>
-    </row>
-    <row r="54" spans="15:19" ht="15.75" customHeight="1">
-      <c r="O54" s="43"/>
-      <c r="P54" s="44"/>
-      <c r="Q54" s="44"/>
-      <c r="R54" s="44"/>
-      <c r="S54" s="44"/>
-    </row>
-    <row r="55" spans="15:19" ht="15.75" customHeight="1">
-      <c r="O55" s="42"/>
-      <c r="P55" s="42"/>
-      <c r="Q55" s="42"/>
-      <c r="R55" s="42"/>
-      <c r="S55" s="42"/>
-    </row>
-    <row r="56" spans="15:19" ht="15.75" customHeight="1">
-      <c r="O56" s="42"/>
-      <c r="P56" s="42"/>
-      <c r="Q56" s="42"/>
-      <c r="R56" s="42"/>
-      <c r="S56" s="42"/>
-    </row>
-    <row r="57" spans="15:19" ht="15.75" customHeight="1">
-      <c r="O57" s="42"/>
-      <c r="P57" s="42"/>
-      <c r="Q57" s="42"/>
-      <c r="R57" s="42"/>
-      <c r="S57" s="42"/>
-    </row>
-    <row r="58" spans="15:19" ht="15.75" customHeight="1">
-      <c r="O58" s="42"/>
-      <c r="P58" s="42"/>
-      <c r="Q58" s="42"/>
-      <c r="R58" s="42"/>
-      <c r="S58" s="42"/>
-    </row>
-    <row r="59" spans="15:19" ht="15.75" customHeight="1">
-      <c r="O59" s="42"/>
-      <c r="P59" s="42"/>
-      <c r="Q59" s="42"/>
-      <c r="R59" s="42"/>
-      <c r="S59" s="42"/>
-    </row>
-    <row r="60" spans="15:19" ht="15.75" customHeight="1">
-      <c r="O60" s="42"/>
-      <c r="P60" s="42"/>
-      <c r="Q60" s="42"/>
-      <c r="R60" s="42"/>
-      <c r="S60" s="42"/>
-    </row>
-    <row r="61" spans="15:19" ht="15.75" customHeight="1">
-      <c r="O61" s="42"/>
-      <c r="P61" s="42"/>
-      <c r="Q61" s="42"/>
-      <c r="R61" s="42"/>
-      <c r="S61" s="42"/>
-    </row>
-    <row r="62" spans="15:19" ht="15.75" customHeight="1">
-      <c r="O62" s="42"/>
-      <c r="P62" s="42"/>
-      <c r="Q62" s="42"/>
-      <c r="R62" s="42"/>
-      <c r="S62" s="42"/>
-    </row>
-    <row r="63" spans="15:19" ht="15.75" customHeight="1">
-      <c r="O63" s="42"/>
-      <c r="P63" s="42"/>
-      <c r="Q63" s="42"/>
-      <c r="R63" s="42"/>
-      <c r="S63" s="42"/>
-    </row>
-    <row r="64" spans="15:19" ht="15.75" customHeight="1">
-      <c r="O64" s="42"/>
-      <c r="P64" s="42"/>
-      <c r="Q64" s="42"/>
-      <c r="R64" s="42"/>
-      <c r="S64" s="42"/>
-    </row>
-    <row r="65" spans="15:19" ht="15.75" customHeight="1">
-      <c r="O65" s="42"/>
-      <c r="P65" s="42"/>
-      <c r="Q65" s="42"/>
-      <c r="R65" s="42"/>
-      <c r="S65" s="42"/>
-    </row>
-    <row r="66" spans="15:19" ht="15.75" customHeight="1">
-      <c r="O66" s="42"/>
-      <c r="P66" s="42"/>
-      <c r="Q66" s="42"/>
-      <c r="R66" s="42"/>
-      <c r="S66" s="42"/>
-    </row>
-    <row r="67" spans="15:19" ht="15.75" customHeight="1">
-      <c r="O67" s="42"/>
-      <c r="P67" s="42"/>
-      <c r="Q67" s="42"/>
-      <c r="R67" s="42"/>
-      <c r="S67" s="42"/>
-    </row>
-    <row r="68" spans="15:19" ht="15.75" customHeight="1">
-      <c r="O68" s="42"/>
-      <c r="P68" s="42"/>
-      <c r="Q68" s="42"/>
-      <c r="R68" s="42"/>
-      <c r="S68" s="42"/>
-    </row>
-    <row r="69" spans="15:19" ht="15.75" customHeight="1">
-      <c r="O69" s="42"/>
-      <c r="P69" s="42"/>
-      <c r="Q69" s="42"/>
-      <c r="R69" s="42"/>
-      <c r="S69" s="42"/>
-    </row>
-    <row r="70" spans="15:19" ht="15.75" customHeight="1">
-      <c r="O70" s="42"/>
-      <c r="P70" s="42"/>
-      <c r="Q70" s="42"/>
-      <c r="R70" s="42"/>
-      <c r="S70" s="42"/>
-    </row>
-    <row r="71" spans="15:19" ht="15.75" customHeight="1">
-      <c r="O71" s="41"/>
-      <c r="P71" s="41"/>
-      <c r="Q71" s="41"/>
-      <c r="R71" s="41"/>
-      <c r="S71" s="41"/>
-    </row>
-    <row r="72" spans="15:19" ht="15.75" customHeight="1">
-      <c r="O72" s="42"/>
-      <c r="P72" s="42"/>
-      <c r="Q72" s="42"/>
-      <c r="R72" s="42"/>
-      <c r="S72" s="42"/>
-    </row>
-    <row r="73" spans="15:19" ht="15.75" customHeight="1">
-      <c r="O73" s="42"/>
-      <c r="P73" s="42"/>
-      <c r="Q73" s="42"/>
-      <c r="R73" s="42"/>
-      <c r="S73" s="42"/>
-    </row>
-    <row r="74" spans="15:19" ht="15.75" customHeight="1">
-      <c r="O74" s="42"/>
-      <c r="P74" s="42"/>
-      <c r="Q74" s="42"/>
-      <c r="R74" s="42"/>
-      <c r="S74" s="42"/>
-    </row>
-    <row r="75" spans="15:19" ht="15.75" customHeight="1">
-      <c r="O75" s="42"/>
-      <c r="P75" s="42"/>
-      <c r="Q75" s="42"/>
-      <c r="R75" s="42"/>
-      <c r="S75" s="42"/>
-    </row>
-    <row r="76" spans="15:19" ht="15.75" customHeight="1">
-      <c r="O76" s="42"/>
-      <c r="P76" s="42"/>
-      <c r="Q76" s="42"/>
-      <c r="R76" s="42"/>
-      <c r="S76" s="42"/>
-    </row>
-    <row r="77" spans="15:19" ht="15.75" customHeight="1">
-      <c r="O77" s="42"/>
-      <c r="P77" s="42"/>
-      <c r="Q77" s="42"/>
-      <c r="R77" s="42"/>
-      <c r="S77" s="42"/>
-    </row>
-    <row r="78" spans="15:19" ht="15.75" customHeight="1">
-      <c r="O78" s="42"/>
-      <c r="P78" s="42"/>
-      <c r="Q78" s="42"/>
-      <c r="R78" s="42"/>
-      <c r="S78" s="42"/>
-    </row>
-    <row r="79" spans="15:19" ht="15.75" customHeight="1">
-      <c r="O79" s="42"/>
-      <c r="P79" s="42"/>
-      <c r="Q79" s="42"/>
-      <c r="R79" s="42"/>
-      <c r="S79" s="42"/>
-    </row>
-    <row r="80" spans="15:19" ht="15.75" customHeight="1">
-      <c r="O80" s="42"/>
-      <c r="P80" s="42"/>
-      <c r="Q80" s="42"/>
-      <c r="R80" s="42"/>
-      <c r="S80" s="42"/>
+    </row>
+    <row r="23" spans="16:17" ht="15.75" customHeight="1">
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+    </row>
+    <row r="24" spans="16:17" ht="15.75" customHeight="1">
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+    </row>
+    <row r="25" spans="16:17" ht="15.75" customHeight="1">
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+    </row>
+    <row r="26" spans="16:17" ht="15.75" customHeight="1">
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+    </row>
+    <row r="27" spans="16:17" ht="15.75" customHeight="1">
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+    </row>
+    <row r="28" spans="16:17" ht="15.75" customHeight="1">
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+    </row>
+    <row r="29" spans="16:17" ht="15.75" customHeight="1">
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+    </row>
+    <row r="30" spans="16:17" ht="15.75" customHeight="1">
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+    </row>
+    <row r="31" spans="16:17" ht="15.75" customHeight="1">
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+    </row>
+    <row r="32" spans="16:17" ht="15.75" customHeight="1">
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+    </row>
+    <row r="33" spans="3:17" ht="15.75" customHeight="1">
+      <c r="Q33" s="39"/>
+    </row>
+    <row r="34" spans="3:17" ht="15.75" customHeight="1">
+      <c r="Q34" s="39"/>
+    </row>
+    <row r="35" spans="3:17" ht="15.75" customHeight="1">
+      <c r="Q35" s="39"/>
+    </row>
+    <row r="36" spans="3:17" ht="15.75" customHeight="1">
+      <c r="Q36" s="39"/>
+    </row>
+    <row r="37" spans="3:17" ht="15.75" customHeight="1">
+      <c r="Q37" s="39"/>
+    </row>
+    <row r="38" spans="3:17" ht="15.75" customHeight="1">
+      <c r="Q38" s="1"/>
+    </row>
+    <row r="39" spans="3:17" ht="15.75" customHeight="1">
+      <c r="C39" s="40"/>
+      <c r="Q39" s="39"/>
+    </row>
+    <row r="40" spans="3:17" ht="15.75" customHeight="1">
+      <c r="Q40" s="39"/>
+    </row>
+    <row r="41" spans="3:17" ht="15.75" customHeight="1">
+      <c r="Q41" s="39"/>
+    </row>
+    <row r="42" spans="3:17" ht="15.75" customHeight="1">
+      <c r="Q42" s="39"/>
+    </row>
+    <row r="43" spans="3:17" ht="15.75" customHeight="1">
+      <c r="Q43" s="39"/>
+    </row>
+    <row r="44" spans="3:17" ht="15.75" customHeight="1">
+      <c r="Q44" s="39"/>
+    </row>
+    <row r="45" spans="3:17" ht="15.75" customHeight="1">
+      <c r="Q45" s="39"/>
+    </row>
+    <row r="46" spans="3:17" ht="15.75" customHeight="1">
+      <c r="Q46" s="39"/>
+    </row>
+    <row r="47" spans="3:17" ht="15.75" customHeight="1">
+      <c r="Q47" s="39"/>
+    </row>
+    <row r="48" spans="3:17" ht="15.75" customHeight="1">
+      <c r="Q48" s="39"/>
+    </row>
+    <row r="49" spans="14:18" ht="15.75" customHeight="1">
+      <c r="N49" s="39"/>
+      <c r="O49" s="39"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="39"/>
+      <c r="R49" s="39"/>
+    </row>
+    <row r="50" spans="14:18" ht="15.75" customHeight="1">
+      <c r="N50" s="39"/>
+      <c r="O50" s="39"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="39"/>
+      <c r="R50" s="39"/>
+    </row>
+    <row r="51" spans="14:18" ht="15.75" customHeight="1">
+      <c r="N51" s="39"/>
+      <c r="O51" s="39"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="39"/>
+      <c r="R51" s="39"/>
+    </row>
+    <row r="52" spans="14:18" ht="15.75" customHeight="1">
+      <c r="N52" s="39"/>
+      <c r="O52" s="39"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="39"/>
+      <c r="R52" s="39"/>
+    </row>
+    <row r="53" spans="14:18" ht="15.75" customHeight="1">
+      <c r="N53" s="39"/>
+      <c r="O53" s="39"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="39"/>
+      <c r="R53" s="39"/>
+    </row>
+    <row r="54" spans="14:18" ht="15.75" customHeight="1">
+      <c r="N54" s="47"/>
+      <c r="O54" s="48"/>
+      <c r="P54" s="48"/>
+      <c r="Q54" s="48"/>
+      <c r="R54" s="48"/>
+    </row>
+    <row r="55" spans="14:18" ht="15.75" customHeight="1">
+      <c r="N55" s="39"/>
+      <c r="O55" s="39"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="39"/>
+      <c r="R55" s="39"/>
+    </row>
+    <row r="56" spans="14:18" ht="15.75" customHeight="1">
+      <c r="N56" s="39"/>
+      <c r="O56" s="39"/>
+      <c r="P56" s="39"/>
+      <c r="Q56" s="39"/>
+      <c r="R56" s="39"/>
+    </row>
+    <row r="57" spans="14:18" ht="15.75" customHeight="1">
+      <c r="N57" s="39"/>
+      <c r="O57" s="39"/>
+      <c r="P57" s="39"/>
+      <c r="Q57" s="39"/>
+      <c r="R57" s="39"/>
+    </row>
+    <row r="58" spans="14:18" ht="15.75" customHeight="1">
+      <c r="N58" s="39"/>
+      <c r="O58" s="39"/>
+      <c r="P58" s="39"/>
+      <c r="Q58" s="39"/>
+      <c r="R58" s="39"/>
+    </row>
+    <row r="59" spans="14:18" ht="15.75" customHeight="1">
+      <c r="N59" s="39"/>
+      <c r="O59" s="39"/>
+      <c r="P59" s="39"/>
+      <c r="Q59" s="39"/>
+      <c r="R59" s="39"/>
+    </row>
+    <row r="60" spans="14:18" ht="15.75" customHeight="1">
+      <c r="N60" s="39"/>
+      <c r="O60" s="39"/>
+      <c r="P60" s="39"/>
+      <c r="Q60" s="39"/>
+      <c r="R60" s="39"/>
+    </row>
+    <row r="61" spans="14:18" ht="15.75" customHeight="1">
+      <c r="N61" s="39"/>
+      <c r="O61" s="39"/>
+      <c r="P61" s="39"/>
+      <c r="Q61" s="39"/>
+      <c r="R61" s="39"/>
+    </row>
+    <row r="62" spans="14:18" ht="15.75" customHeight="1">
+      <c r="N62" s="39"/>
+      <c r="O62" s="39"/>
+      <c r="P62" s="39"/>
+      <c r="Q62" s="39"/>
+      <c r="R62" s="39"/>
+    </row>
+    <row r="63" spans="14:18" ht="15.75" customHeight="1">
+      <c r="N63" s="39"/>
+      <c r="O63" s="39"/>
+      <c r="P63" s="39"/>
+      <c r="Q63" s="39"/>
+      <c r="R63" s="39"/>
+    </row>
+    <row r="64" spans="14:18" ht="15.75" customHeight="1">
+      <c r="N64" s="39"/>
+      <c r="O64" s="39"/>
+      <c r="P64" s="39"/>
+      <c r="Q64" s="39"/>
+      <c r="R64" s="39"/>
+    </row>
+    <row r="65" spans="14:18" ht="15.75" customHeight="1">
+      <c r="N65" s="39"/>
+      <c r="O65" s="39"/>
+      <c r="P65" s="39"/>
+      <c r="Q65" s="39"/>
+      <c r="R65" s="39"/>
+    </row>
+    <row r="66" spans="14:18" ht="15.75" customHeight="1">
+      <c r="N66" s="39"/>
+      <c r="O66" s="39"/>
+      <c r="P66" s="39"/>
+      <c r="Q66" s="39"/>
+      <c r="R66" s="39"/>
+    </row>
+    <row r="67" spans="14:18" ht="15.75" customHeight="1">
+      <c r="N67" s="39"/>
+      <c r="O67" s="39"/>
+      <c r="P67" s="39"/>
+      <c r="Q67" s="39"/>
+      <c r="R67" s="39"/>
+    </row>
+    <row r="68" spans="14:18" ht="15.75" customHeight="1">
+      <c r="N68" s="39"/>
+      <c r="O68" s="39"/>
+      <c r="P68" s="39"/>
+      <c r="Q68" s="39"/>
+      <c r="R68" s="39"/>
+    </row>
+    <row r="69" spans="14:18" ht="15.75" customHeight="1">
+      <c r="N69" s="39"/>
+      <c r="O69" s="39"/>
+      <c r="P69" s="39"/>
+      <c r="Q69" s="39"/>
+      <c r="R69" s="39"/>
+    </row>
+    <row r="70" spans="14:18" ht="15.75" customHeight="1">
+      <c r="N70" s="39"/>
+      <c r="O70" s="39"/>
+      <c r="P70" s="39"/>
+      <c r="Q70" s="39"/>
+      <c r="R70" s="39"/>
+    </row>
+    <row r="71" spans="14:18" ht="15.75" customHeight="1">
+      <c r="N71" s="38"/>
+      <c r="O71" s="38"/>
+      <c r="P71" s="38"/>
+      <c r="Q71" s="38"/>
+      <c r="R71" s="38"/>
+    </row>
+    <row r="72" spans="14:18" ht="15.75" customHeight="1">
+      <c r="N72" s="39"/>
+      <c r="O72" s="39"/>
+      <c r="P72" s="39"/>
+      <c r="Q72" s="39"/>
+      <c r="R72" s="39"/>
+    </row>
+    <row r="73" spans="14:18" ht="15.75" customHeight="1">
+      <c r="N73" s="39"/>
+      <c r="O73" s="39"/>
+      <c r="P73" s="39"/>
+      <c r="Q73" s="39"/>
+      <c r="R73" s="39"/>
+    </row>
+    <row r="74" spans="14:18" ht="15.75" customHeight="1">
+      <c r="N74" s="39"/>
+      <c r="O74" s="39"/>
+      <c r="P74" s="39"/>
+      <c r="Q74" s="39"/>
+      <c r="R74" s="39"/>
+    </row>
+    <row r="75" spans="14:18" ht="15.75" customHeight="1">
+      <c r="N75" s="39"/>
+      <c r="O75" s="39"/>
+      <c r="P75" s="39"/>
+      <c r="Q75" s="39"/>
+      <c r="R75" s="39"/>
+    </row>
+    <row r="76" spans="14:18" ht="15.75" customHeight="1">
+      <c r="N76" s="39"/>
+      <c r="O76" s="39"/>
+      <c r="P76" s="39"/>
+      <c r="Q76" s="39"/>
+      <c r="R76" s="39"/>
+    </row>
+    <row r="77" spans="14:18" ht="15.75" customHeight="1">
+      <c r="N77" s="39"/>
+      <c r="O77" s="39"/>
+      <c r="P77" s="39"/>
+      <c r="Q77" s="39"/>
+      <c r="R77" s="39"/>
+    </row>
+    <row r="78" spans="14:18" ht="15.75" customHeight="1">
+      <c r="N78" s="39"/>
+      <c r="O78" s="39"/>
+      <c r="P78" s="39"/>
+      <c r="Q78" s="39"/>
+      <c r="R78" s="39"/>
+    </row>
+    <row r="79" spans="14:18" ht="15.75" customHeight="1">
+      <c r="N79" s="39"/>
+      <c r="O79" s="39"/>
+      <c r="P79" s="39"/>
+      <c r="Q79" s="39"/>
+      <c r="R79" s="39"/>
+    </row>
+    <row r="80" spans="14:18" ht="15.75" customHeight="1">
+      <c r="N80" s="39"/>
+      <c r="O80" s="39"/>
+      <c r="P80" s="39"/>
+      <c r="Q80" s="39"/>
+      <c r="R80" s="39"/>
     </row>
     <row r="81" ht="15.75" customHeight="1"/>
     <row r="82" ht="15.75" customHeight="1"/>
@@ -1581,22 +1767,24 @@
     <row r="94" ht="15.75" customHeight="1"/>
     <row r="95" ht="15.75" customHeight="1"/>
     <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="97" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="98" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="99" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="100" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="101" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="102" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="103" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="104" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="105" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A105" s="61"/>
+    </row>
+    <row r="106" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="107" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="108" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="109" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="110" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="111" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="112" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="113" ht="15.75" customHeight="1"/>
     <row r="114" ht="15.75" customHeight="1"/>
     <row r="115" ht="15.75" customHeight="1"/>
@@ -1613,22 +1801,24 @@
     <row r="126" ht="15.75" customHeight="1"/>
     <row r="127" ht="15.75" customHeight="1"/>
     <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="129" spans="3:3" ht="15.75" customHeight="1"/>
+    <row r="130" spans="3:3" ht="15.75" customHeight="1"/>
+    <row r="131" spans="3:3" ht="15.75" customHeight="1"/>
+    <row r="132" spans="3:3" ht="15.75" customHeight="1"/>
+    <row r="133" spans="3:3" ht="15.75" customHeight="1">
+      <c r="C133" s="40"/>
+    </row>
+    <row r="134" spans="3:3" ht="15.75" customHeight="1"/>
+    <row r="135" spans="3:3" ht="15.75" customHeight="1"/>
+    <row r="136" spans="3:3" ht="15.75" customHeight="1"/>
+    <row r="137" spans="3:3" ht="15.75" customHeight="1"/>
+    <row r="138" spans="3:3" ht="15.75" customHeight="1"/>
+    <row r="139" spans="3:3" ht="15.75" customHeight="1"/>
+    <row r="140" spans="3:3" ht="15.75" customHeight="1"/>
+    <row r="141" spans="3:3" ht="15.75" customHeight="1"/>
+    <row r="142" spans="3:3" ht="15.75" customHeight="1"/>
+    <row r="143" spans="3:3" ht="15.75" customHeight="1"/>
+    <row r="144" spans="3:3" ht="15.75" customHeight="1"/>
     <row r="145" ht="15.75" customHeight="1"/>
     <row r="146" ht="15.75" customHeight="1"/>
     <row r="147" ht="15.75" customHeight="1"/>
@@ -2397,38 +2587,42 @@
     <row r="910" ht="15.75" customHeight="1"/>
     <row r="911" ht="15.75" customHeight="1"/>
     <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="913" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="914" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="915" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="916" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="917" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="918" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="919" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="920" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="921" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="922" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="923" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="924" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="925" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="926" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="927" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="928" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A928" s="61"/>
+    </row>
+    <row r="929" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="930" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A930" s="61"/>
+    </row>
+    <row r="931" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="932" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="933" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="934" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="935" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="936" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="937" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="938" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="939" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="940" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="941" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="942" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="943" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="944" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="945" ht="15.75" customHeight="1"/>
     <row r="946" ht="15.75" customHeight="1"/>
     <row r="947" ht="15.75" customHeight="1"/>
@@ -2477,28 +2671,57 @@
     <row r="990" ht="15.75" customHeight="1"/>
     <row r="991" ht="15.75" customHeight="1"/>
     <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="993" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="994" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A994" s="61"/>
+    </row>
+    <row r="995" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="996" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="997" spans="1:3" ht="15.75" customHeight="1">
+      <c r="C997" s="40"/>
+    </row>
+    <row r="998" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="999" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="1000" spans="1:3" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="O54:S54"/>
+    <mergeCell ref="N54:R54"/>
   </mergeCells>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="expression" dxfId="8" priority="7">
+      <formula>LEN(A1)&lt;8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1 F3:F1048576">
+    <cfRule type="notContainsText" dxfId="7" priority="6" operator="notContains" text=" ">
+      <formula>ISERROR(SEARCH(" ",F1))</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="6" priority="3" operator="endsWith" text=" ">
+      <formula>RIGHT(F1,LEN(" "))=" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="B28" sqref="B28:I28"/>
     </sheetView>
   </sheetViews>
@@ -2519,536 +2742,536 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="20">
+        <v>7878078780</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="22">
+        <v>33025</v>
+      </c>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="20">
+        <v>9898098980</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="22">
+        <v>29252</v>
+      </c>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="39"/>
+      <c r="E5" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="20">
+        <v>7878078780</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="22">
+        <v>31199</v>
+      </c>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1" thickBot="1">
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1">
+      <c r="A9" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1">
+      <c r="A10" s="50"/>
+      <c r="B10" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1">
+      <c r="A11" s="50"/>
+      <c r="B11" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1">
+      <c r="A12" s="50"/>
+      <c r="B12" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" thickBot="1">
+      <c r="A13" s="51"/>
+      <c r="B13" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+    </row>
+    <row r="15" spans="1:12" ht="15" customHeight="1" thickBot="1">
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1">
+      <c r="A16" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1">
+      <c r="A17" s="35">
+        <v>1</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="54"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1">
+      <c r="A18" s="35">
+        <v>2</v>
+      </c>
+      <c r="B18" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="57"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1">
+      <c r="A19" s="35">
+        <v>3</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="54"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1">
+      <c r="A20" s="35">
+        <v>4</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="54"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A21" s="35">
+        <v>5</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="54"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A22" s="35">
+        <v>6</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="54"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A23" s="35">
+        <v>7</v>
+      </c>
+      <c r="B23" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="54"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A24" s="35">
+        <v>8</v>
+      </c>
+      <c r="B24" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="54"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A25" s="35">
         <v>9</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="B25" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="54"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A26" s="36">
         <v>10</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="B26" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="57"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A27" s="36">
         <v>11</v>
       </c>
-      <c r="L1" s="19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="15" t="s">
+      <c r="B27" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="54"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A28" s="35">
         <v>12</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B28" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="54"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A29" s="37">
         <v>13</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="23">
-        <v>7878078780</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="25">
-        <v>33025</v>
-      </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="23">
-        <v>9898098980</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="25">
-        <v>29252</v>
-      </c>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="23">
-        <v>7878078780</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="25">
-        <v>31199</v>
-      </c>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-    </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-    </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1">
-      <c r="A9" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1">
-      <c r="A10" s="46"/>
-      <c r="B10" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1">
-      <c r="A11" s="46"/>
-      <c r="B11" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-    </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1">
-      <c r="A12" s="46"/>
-      <c r="B12" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A13" s="47"/>
-      <c r="B13" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-    </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-    </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1">
-      <c r="A17" s="38">
-        <v>1</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="50"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1">
-      <c r="A18" s="38">
-        <v>2</v>
-      </c>
-      <c r="B18" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="53"/>
-    </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1">
-      <c r="A19" s="38">
-        <v>3</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="50"/>
-    </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1">
-      <c r="A20" s="38">
-        <v>4</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="50"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A21" s="38">
-        <v>5</v>
-      </c>
-      <c r="B21" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="50"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A22" s="38">
-        <v>6</v>
-      </c>
-      <c r="B22" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="50"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A23" s="38">
-        <v>7</v>
-      </c>
-      <c r="B23" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="50"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A24" s="38">
-        <v>8</v>
-      </c>
-      <c r="B24" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="50"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A25" s="38">
-        <v>9</v>
-      </c>
-      <c r="B25" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="50"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A26" s="39">
-        <v>10</v>
-      </c>
-      <c r="B26" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="53"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A27" s="39">
-        <v>11</v>
-      </c>
-      <c r="B27" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="50"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A28" s="38">
-        <v>12</v>
-      </c>
-      <c r="B28" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="50"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A29" s="40">
-        <v>13</v>
-      </c>
-      <c r="B29" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="56"/>
+      <c r="B29" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="60"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A30" s="42"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A31" s="42"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A32" s="42"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
     </row>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
@@ -4035,9 +4258,9 @@
     <mergeCell ref="B20:I20"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="G4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="G5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="G3" r:id="rId1"/>
+    <hyperlink ref="G4" r:id="rId2"/>
+    <hyperlink ref="G5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
